--- a/Literature Survey/table comparision.xlsx
+++ b/Literature Survey/table comparision.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
   <si>
     <t>Where It Can Be Used</t>
   </si>
@@ -611,6 +611,15 @@
   </si>
   <si>
     <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC3810387/</t>
+  </si>
+  <si>
+    <t>Audio Input/Output</t>
+  </si>
+  <si>
+    <t>Digit memory game</t>
+  </si>
+  <si>
+    <t>stroop game</t>
   </si>
 </sst>
 </file>
@@ -648,7 +657,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +667,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -693,6 +708,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,22 +996,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" customWidth="1"/>
-    <col min="5" max="5" width="55.85546875" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
+    <col min="2" max="2" width="54.7265625" customWidth="1"/>
+    <col min="3" max="3" width="55.7265625" customWidth="1"/>
+    <col min="4" max="4" width="52.1796875" customWidth="1"/>
+    <col min="5" max="5" width="55.81640625" customWidth="1"/>
+    <col min="6" max="6" width="56.453125" customWidth="1"/>
+    <col min="7" max="7" width="52.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1287,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1313,7 +1333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
@@ -1359,7 +1379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1460,7 +1480,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1469,7 +1489,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1478,7 +1498,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1487,7 +1507,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1496,7 +1516,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1505,7 +1525,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1514,7 +1534,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1523,7 +1543,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1532,7 +1552,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1549,225 +1569,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I10"/>
+  <dimension ref="A4:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1776,35 +1927,35 @@
   <dimension ref="A3:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.85546875" customWidth="1"/>
+    <col min="1" max="1" width="96.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>125</v>
       </c>

--- a/Literature Survey/table comparision.xlsx
+++ b/Literature Survey/table comparision.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="121">
   <si>
     <t>Where It Can Be Used</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Unique Selling Point (USP)</t>
   </si>
   <si>
-    <t>Game Levels Available</t>
-  </si>
-  <si>
     <t>Hardware Requirements</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Localization / Scalability</t>
   </si>
   <si>
-    <t>Version Status</t>
-  </si>
-  <si>
     <t>Limitations / Notes</t>
   </si>
   <si>
@@ -448,24 +442,6 @@
     <t>No external tools needed, color-based object matching</t>
   </si>
   <si>
-    <t>10 Qs; increasing speed &amp; difficulty with score</t>
-  </si>
-  <si>
-    <t>10 Qs; consistent speed</t>
-  </si>
-  <si>
-    <t>10 Qs; per-question speech input</t>
-  </si>
-  <si>
-    <t>10 Qs; gesture detected per question</t>
-  </si>
-  <si>
-    <t>10 Qs; QR scanned per question</t>
-  </si>
-  <si>
-    <t>10 Qs; color object shown on camera</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -530,15 +506,6 @@
   </si>
   <si>
     <t>Can be scaled with robust color recognition</t>
-  </si>
-  <si>
-    <t>Stable</t>
-  </si>
-  <si>
-    <t>Prototype with fallbacks</t>
-  </si>
-  <si>
-    <t>Mostly stable</t>
   </si>
   <si>
     <t>Mouse accuracy may vary on small screens</t>
@@ -994,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G41"/>
+  <dimension ref="A3:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,25 +980,25 @@
   <sheetData>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1039,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1062,22 +1029,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1085,22 +1052,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1108,22 +1075,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1131,22 +1098,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1154,22 +1121,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1177,22 +1144,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1200,22 +1167,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1223,22 +1190,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1246,22 +1213,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1269,22 +1236,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1292,22 +1259,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1315,68 +1282,68 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1384,22 +1351,22 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1407,69 +1374,32 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
@@ -1551,15 +1481,6 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,302 +1506,302 @@
   <sheetData>
     <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1937,27 +1858,27 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
